--- a/3_Raw_filtered_data_with_aggregated_line_time_series_plots.xlsx
+++ b/3_Raw_filtered_data_with_aggregated_line_time_series_plots.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
   <si>
     <t>Test</t>
   </si>
@@ -9261,40 +9261,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9302,41 +9272,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$B$2:$B$12</c:f>
+              <c:f>'White Card'!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -9354,40 +9294,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9395,41 +9305,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$C$2:$C$12</c:f>
+              <c:f>'White Card'!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9447,40 +9327,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9488,42 +9338,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$D$2:$D$12</c:f>
+              <c:f>'White Card'!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12239.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12177.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12204.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12358.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12401.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12481.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12679.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12610.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12599.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12484.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12443.4</c:v>
+                  <c:v>12425.43636363636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9540,40 +9360,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9581,42 +9371,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$E$2:$E$12</c:f>
+              <c:f>'White Card'!$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16012.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15910.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15829.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16239.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16261.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16376.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16561.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16480.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16416.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16332.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16315.7</c:v>
+                  <c:v>16248.84545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9633,40 +9393,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9674,42 +9404,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$F$2:$F$12</c:f>
+              <c:f>'White Card'!$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19880.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19853.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19524</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19113.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19323.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19955.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20418.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20336.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20190.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20021.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19814.6</c:v>
+                  <c:v>19857.51818181818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9726,40 +9426,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9767,42 +9437,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$G$2:$G$12</c:f>
+              <c:f>'White Card'!$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18382.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18305.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18691.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18801.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18829.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19063.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18901.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18851.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18722.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18746.8</c:v>
+                  <c:v>18727.88181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9819,40 +9459,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9860,42 +9470,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$H$2:$H$12</c:f>
+              <c:f>'White Card'!$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17609.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17428.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17657.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17618.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17700.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17943.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18093</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18021.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17983.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17925.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17886.3</c:v>
+                  <c:v>17806.14545454545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9912,40 +9492,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -9953,42 +9503,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$I$2:$I$12</c:f>
+              <c:f>'White Card'!$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16400.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16251</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15865.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14996.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15232.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16140.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16546.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16364.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16168</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16037.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15815.9</c:v>
+                  <c:v>15983.59090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10005,40 +9525,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10046,42 +9536,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$J$2:$J$12</c:f>
+              <c:f>'White Card'!$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10050.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10554.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10776.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10763.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10748.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10732.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10725.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10715.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10693.9</c:v>
+                  <c:v>10612.63636363636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10098,40 +9558,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10139,42 +9569,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$K$2:$K$12</c:f>
+              <c:f>'White Card'!$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10829.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10929.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11061.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11085.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11094.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11123.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11152.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11132.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11123.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11091.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11132.3</c:v>
+                  <c:v>11068.88181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10191,40 +9591,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10232,42 +9602,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$L$2:$L$12</c:f>
+              <c:f>'White Card'!$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26659.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27441.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27501.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27365.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27408.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27570.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27653.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27696.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27545.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27573.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27711.5</c:v>
+                  <c:v>27466.08181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10284,40 +9624,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10325,42 +9635,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$M$2:$M$12</c:f>
+              <c:f>'White Card'!$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9716.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9733.950000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9659.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9693.610000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9748.379999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9940.459999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9889.389999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9862</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9779.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9740.610000000001</c:v>
+                  <c:v>9779.031818181818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10377,40 +9657,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10418,42 +9668,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$N$2:$N$12</c:f>
+              <c:f>'White Card'!$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24171.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23930.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23279.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20588.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20765.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22969.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22925.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22316.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21910.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22043.8</c:v>
+                  <c:v>22157.04545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10470,40 +9690,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10511,42 +9701,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$O$2:$O$12</c:f>
+              <c:f>'White Card'!$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8035.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8045.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7971.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7354.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7472.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7778.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8002.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7938.69</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7927.82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7848.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7969.59</c:v>
+                  <c:v>7849.564545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10563,40 +9723,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10604,42 +9734,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$P$2:$P$12</c:f>
+              <c:f>'White Card'!$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20053.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19909.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19565.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19706.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19886.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19924.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20388.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20298.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20179.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20015.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19997.5</c:v>
+                  <c:v>19993.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10656,40 +9756,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10697,42 +9767,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$Q$2:$Q$12</c:f>
+              <c:f>'White Card'!$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18650.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18452.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18235.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17200.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17847.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17924.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18845.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18751.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18619.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18373.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18375.1</c:v>
+                  <c:v>18297.85454545455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10749,40 +9789,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10790,42 +9800,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$R$2:$R$12</c:f>
+              <c:f>'White Card'!$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18743</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19004.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19108.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19201.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19361.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19388.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19529.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19541.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19512.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19500.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19545.7</c:v>
+                  <c:v>19312.49090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10842,40 +9822,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'White Card'!$A$2:$A$12</c:f>
+              <c:f>'White Card'!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>White Card</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>White Card</c:v>
                 </c:pt>
               </c:strCache>
@@ -10883,42 +9833,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'White Card'!$S$2:$S$12</c:f>
+              <c:f>'White Card'!$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18831.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19253.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19504.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18763.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19101.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19631.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19870.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19811.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19806.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19740.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19899.5</c:v>
+                  <c:v>19474.08181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10963,8 +9883,8 @@
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="27711.5"/>
-          <c:min val="2622.35"/>
+          <c:max val="27466.08181818182"/>
+          <c:min val="2717.640909090909"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -16381,7 +15301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16463,708 +15383,58 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>12239.2</v>
+        <v>12425.43636363636</v>
       </c>
       <c r="E2">
-        <v>16012.7</v>
+        <v>16248.84545454546</v>
       </c>
       <c r="F2">
-        <v>19880.6</v>
+        <v>19857.51818181818</v>
       </c>
       <c r="G2">
-        <v>18382.5</v>
+        <v>18727.88181818182</v>
       </c>
       <c r="H2">
-        <v>17609.2</v>
+        <v>17806.14545454545</v>
       </c>
       <c r="I2">
-        <v>16400.1</v>
+        <v>15983.59090909091</v>
       </c>
       <c r="J2">
-        <v>10050.1</v>
+        <v>10612.63636363636</v>
       </c>
       <c r="K2">
-        <v>10829.4</v>
+        <v>11068.88181818182</v>
       </c>
       <c r="L2">
-        <v>26659.7</v>
+        <v>27466.08181818182</v>
       </c>
       <c r="M2">
-        <v>9716.92</v>
+        <v>9779.031818181818</v>
       </c>
       <c r="N2">
-        <v>24171.8</v>
+        <v>22157.04545454546</v>
       </c>
       <c r="O2">
-        <v>8035.13</v>
+        <v>7849.564545454546</v>
       </c>
       <c r="P2">
-        <v>20053.3</v>
+        <v>19993.2</v>
       </c>
       <c r="Q2">
-        <v>18650.5</v>
+        <v>18297.85454545455</v>
       </c>
       <c r="R2">
-        <v>18743</v>
+        <v>19312.49090909091</v>
       </c>
       <c r="S2">
-        <v>18831.5</v>
+        <v>19474.08181818182</v>
       </c>
       <c r="T2">
-        <v>4506.57</v>
+        <v>4477.12090909091</v>
       </c>
       <c r="U2">
-        <v>2669.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3">
-        <v>12177.9</v>
-      </c>
-      <c r="E3">
-        <v>15910.7</v>
-      </c>
-      <c r="F3">
-        <v>19853.6</v>
-      </c>
-      <c r="G3">
-        <v>18305.3</v>
-      </c>
-      <c r="H3">
-        <v>17428.6</v>
-      </c>
-      <c r="I3">
-        <v>16251</v>
-      </c>
-      <c r="J3">
-        <v>10274</v>
-      </c>
-      <c r="K3">
-        <v>10929.7</v>
-      </c>
-      <c r="L3">
-        <v>27441.4</v>
-      </c>
-      <c r="M3">
-        <v>9805</v>
-      </c>
-      <c r="N3">
-        <v>23930.3</v>
-      </c>
-      <c r="O3">
-        <v>8045.99</v>
-      </c>
-      <c r="P3">
-        <v>19909.7</v>
-      </c>
-      <c r="Q3">
-        <v>18452.6</v>
-      </c>
-      <c r="R3">
-        <v>19004.1</v>
-      </c>
-      <c r="S3">
-        <v>19253.3</v>
-      </c>
-      <c r="T3">
-        <v>4498.24</v>
-      </c>
-      <c r="U3">
-        <v>2666.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4">
-        <v>12204.3</v>
-      </c>
-      <c r="E4">
-        <v>15829.9</v>
-      </c>
-      <c r="F4">
-        <v>19524</v>
-      </c>
-      <c r="G4">
-        <v>18691.6</v>
-      </c>
-      <c r="H4">
-        <v>17657.8</v>
-      </c>
-      <c r="I4">
-        <v>15865.8</v>
-      </c>
-      <c r="J4">
-        <v>10554.8</v>
-      </c>
-      <c r="K4">
-        <v>11061.9</v>
-      </c>
-      <c r="L4">
-        <v>27501.8</v>
-      </c>
-      <c r="M4">
-        <v>9733.950000000001</v>
-      </c>
-      <c r="N4">
-        <v>23279.1</v>
-      </c>
-      <c r="O4">
-        <v>7971.97</v>
-      </c>
-      <c r="P4">
-        <v>19565.9</v>
-      </c>
-      <c r="Q4">
-        <v>18235.7</v>
-      </c>
-      <c r="R4">
-        <v>19108.1</v>
-      </c>
-      <c r="S4">
-        <v>19504.7</v>
-      </c>
-      <c r="T4">
-        <v>4467.12</v>
-      </c>
-      <c r="U4">
-        <v>2622.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5">
-        <v>12358.3</v>
-      </c>
-      <c r="E5">
-        <v>16239.7</v>
-      </c>
-      <c r="F5">
-        <v>19113.7</v>
-      </c>
-      <c r="G5">
-        <v>18712</v>
-      </c>
-      <c r="H5">
-        <v>17618.8</v>
-      </c>
-      <c r="I5">
-        <v>14996.9</v>
-      </c>
-      <c r="J5">
-        <v>10776.1</v>
-      </c>
-      <c r="K5">
-        <v>11085.1</v>
-      </c>
-      <c r="L5">
-        <v>27365.1</v>
-      </c>
-      <c r="M5">
-        <v>9659.93</v>
-      </c>
-      <c r="N5">
-        <v>18827</v>
-      </c>
-      <c r="O5">
-        <v>7354.61</v>
-      </c>
-      <c r="P5">
-        <v>19706.4</v>
-      </c>
-      <c r="Q5">
-        <v>17200.9</v>
-      </c>
-      <c r="R5">
-        <v>19201.6</v>
-      </c>
-      <c r="S5">
-        <v>18763.4</v>
-      </c>
-      <c r="T5">
-        <v>4308.75</v>
-      </c>
-      <c r="U5">
-        <v>2710.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6">
-        <v>12401.7</v>
-      </c>
-      <c r="E6">
-        <v>16261.9</v>
-      </c>
-      <c r="F6">
-        <v>19323.5</v>
-      </c>
-      <c r="G6">
-        <v>18801.1</v>
-      </c>
-      <c r="H6">
-        <v>17700.2</v>
-      </c>
-      <c r="I6">
-        <v>15232.9</v>
-      </c>
-      <c r="J6">
-        <v>10763.9</v>
-      </c>
-      <c r="K6">
-        <v>11094.4</v>
-      </c>
-      <c r="L6">
-        <v>27408.4</v>
-      </c>
-      <c r="M6">
-        <v>9693.610000000001</v>
-      </c>
-      <c r="N6">
-        <v>20588.7</v>
-      </c>
-      <c r="O6">
-        <v>7472.11</v>
-      </c>
-      <c r="P6">
-        <v>19886.1</v>
-      </c>
-      <c r="Q6">
-        <v>17847.3</v>
-      </c>
-      <c r="R6">
-        <v>19361.9</v>
-      </c>
-      <c r="S6">
-        <v>19101.8</v>
-      </c>
-      <c r="T6">
-        <v>4404.33</v>
-      </c>
-      <c r="U6">
-        <v>2708.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7">
-        <v>12481.7</v>
-      </c>
-      <c r="E7">
-        <v>16376.4</v>
-      </c>
-      <c r="F7">
-        <v>19955.8</v>
-      </c>
-      <c r="G7">
-        <v>18829.2</v>
-      </c>
-      <c r="H7">
-        <v>17943.1</v>
-      </c>
-      <c r="I7">
-        <v>16140.1</v>
-      </c>
-      <c r="J7">
-        <v>10748.6</v>
-      </c>
-      <c r="K7">
-        <v>11123.9</v>
-      </c>
-      <c r="L7">
-        <v>27570.2</v>
-      </c>
-      <c r="M7">
-        <v>9748.379999999999</v>
-      </c>
-      <c r="N7">
-        <v>20765.1</v>
-      </c>
-      <c r="O7">
-        <v>7778.75</v>
-      </c>
-      <c r="P7">
-        <v>19924.6</v>
-      </c>
-      <c r="Q7">
-        <v>17924.8</v>
-      </c>
-      <c r="R7">
-        <v>19388.5</v>
-      </c>
-      <c r="S7">
-        <v>19631.6</v>
-      </c>
-      <c r="T7">
-        <v>4431.55</v>
-      </c>
-      <c r="U7">
-        <v>2742.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8">
-        <v>12679.9</v>
-      </c>
-      <c r="E8">
-        <v>16561.1</v>
-      </c>
-      <c r="F8">
-        <v>20418.1</v>
-      </c>
-      <c r="G8">
-        <v>19063.5</v>
-      </c>
-      <c r="H8">
-        <v>18093</v>
-      </c>
-      <c r="I8">
-        <v>16546.7</v>
-      </c>
-      <c r="J8">
-        <v>10732.4</v>
-      </c>
-      <c r="K8">
-        <v>11152.5</v>
-      </c>
-      <c r="L8">
-        <v>27653.4</v>
-      </c>
-      <c r="M8">
-        <v>9940.459999999999</v>
-      </c>
-      <c r="N8">
-        <v>22969.5</v>
-      </c>
-      <c r="O8">
-        <v>8002.53</v>
-      </c>
-      <c r="P8">
-        <v>20388.4</v>
-      </c>
-      <c r="Q8">
-        <v>18845.1</v>
-      </c>
-      <c r="R8">
-        <v>19529.6</v>
-      </c>
-      <c r="S8">
-        <v>19870.1</v>
-      </c>
-      <c r="T8">
-        <v>4572.14</v>
-      </c>
-      <c r="U8">
-        <v>2779.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9">
-        <v>12610.1</v>
-      </c>
-      <c r="E9">
-        <v>16480.3</v>
-      </c>
-      <c r="F9">
-        <v>20336.4</v>
-      </c>
-      <c r="G9">
-        <v>18901.3</v>
-      </c>
-      <c r="H9">
-        <v>18021.8</v>
-      </c>
-      <c r="I9">
-        <v>16364.5</v>
-      </c>
-      <c r="J9">
-        <v>10725.4</v>
-      </c>
-      <c r="K9">
-        <v>11132.7</v>
-      </c>
-      <c r="L9">
-        <v>27696.7</v>
-      </c>
-      <c r="M9">
-        <v>9889.389999999999</v>
-      </c>
-      <c r="N9">
-        <v>22925.2</v>
-      </c>
-      <c r="O9">
-        <v>7938.69</v>
-      </c>
-      <c r="P9">
-        <v>20298.1</v>
-      </c>
-      <c r="Q9">
-        <v>18751.9</v>
-      </c>
-      <c r="R9">
-        <v>19541.7</v>
-      </c>
-      <c r="S9">
-        <v>19811.4</v>
-      </c>
-      <c r="T9">
-        <v>4555.47</v>
-      </c>
-      <c r="U9">
-        <v>2770.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10">
-        <v>12599.1</v>
-      </c>
-      <c r="E10">
-        <v>16416.8</v>
-      </c>
-      <c r="F10">
-        <v>20190.7</v>
-      </c>
-      <c r="G10">
-        <v>18851.2</v>
-      </c>
-      <c r="H10">
-        <v>17983.5</v>
-      </c>
-      <c r="I10">
-        <v>16168</v>
-      </c>
-      <c r="J10">
-        <v>10715.8</v>
-      </c>
-      <c r="K10">
-        <v>11123.9</v>
-      </c>
-      <c r="L10">
-        <v>27545.1</v>
-      </c>
-      <c r="M10">
-        <v>9862</v>
-      </c>
-      <c r="N10">
-        <v>22316.3</v>
-      </c>
-      <c r="O10">
-        <v>7927.82</v>
-      </c>
-      <c r="P10">
-        <v>20179.6</v>
-      </c>
-      <c r="Q10">
-        <v>18619.1</v>
-      </c>
-      <c r="R10">
-        <v>19512.6</v>
-      </c>
-      <c r="S10">
-        <v>19806.7</v>
-      </c>
-      <c r="T10">
-        <v>4541.58</v>
-      </c>
-      <c r="U10">
-        <v>2759.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11">
-        <v>12484.2</v>
-      </c>
-      <c r="E11">
-        <v>16332.1</v>
-      </c>
-      <c r="F11">
-        <v>20021.7</v>
-      </c>
-      <c r="G11">
-        <v>18722.2</v>
-      </c>
-      <c r="H11">
-        <v>17925.3</v>
-      </c>
-      <c r="I11">
-        <v>16037.6</v>
-      </c>
-      <c r="J11">
-        <v>10704</v>
-      </c>
-      <c r="K11">
-        <v>11091.9</v>
-      </c>
-      <c r="L11">
-        <v>27573.6</v>
-      </c>
-      <c r="M11">
-        <v>9779.1</v>
-      </c>
-      <c r="N11">
-        <v>21910.7</v>
-      </c>
-      <c r="O11">
-        <v>7848.02</v>
-      </c>
-      <c r="P11">
-        <v>20015.6</v>
-      </c>
-      <c r="Q11">
-        <v>18373.4</v>
-      </c>
-      <c r="R11">
-        <v>19500.6</v>
-      </c>
-      <c r="S11">
-        <v>19740.9</v>
-      </c>
-      <c r="T11">
-        <v>4495.46</v>
-      </c>
-      <c r="U11">
-        <v>2735.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12">
-        <v>12443.4</v>
-      </c>
-      <c r="E12">
-        <v>16315.7</v>
-      </c>
-      <c r="F12">
-        <v>19814.6</v>
-      </c>
-      <c r="G12">
-        <v>18746.8</v>
-      </c>
-      <c r="H12">
-        <v>17886.3</v>
-      </c>
-      <c r="I12">
-        <v>15815.9</v>
-      </c>
-      <c r="J12">
-        <v>10693.9</v>
-      </c>
-      <c r="K12">
-        <v>11132.3</v>
-      </c>
-      <c r="L12">
-        <v>27711.5</v>
-      </c>
-      <c r="M12">
-        <v>9740.610000000001</v>
-      </c>
-      <c r="N12">
-        <v>22043.8</v>
-      </c>
-      <c r="O12">
-        <v>7969.59</v>
-      </c>
-      <c r="P12">
-        <v>19997.5</v>
-      </c>
-      <c r="Q12">
-        <v>18375.1</v>
-      </c>
-      <c r="R12">
-        <v>19545.7</v>
-      </c>
-      <c r="S12">
-        <v>19899.5</v>
-      </c>
-      <c r="T12">
-        <v>4467.12</v>
-      </c>
-      <c r="U12">
-        <v>2729.11</v>
+        <v>2717.640909090909</v>
       </c>
     </row>
   </sheetData>
